--- a/reports/additional_resources_evidence_based.xlsx
+++ b/reports/additional_resources_evidence_based.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwiederstein/Dropbox/state_rep/bill_requests/evidence_based/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04109CDD-2CC5-7C40-933E-53FE0F0E9674}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C03BD-A4B3-B54B-B827-2DD1543CCC33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5AAAE6EC-DD2A-E947-9EA3-5D2BA7D2231A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{5AAAE6EC-DD2A-E947-9EA3-5D2BA7D2231A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>organization</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>State initiatives.</t>
+  </si>
+  <si>
+    <t>Colorado Results First Initiative</t>
+  </si>
+  <si>
+    <t>https://sites.google.com/state.co.us/rfpfs/home?authuser=0</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466CC07-6EC0-9B4C-AAE5-6424005AFEDA}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,171 +655,182 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
+        <v>43</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>55</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reports/additional_resources_evidence_based.xlsx
+++ b/reports/additional_resources_evidence_based.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertwiederstein/Dropbox/state_rep/bill_requests/evidence_based/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771C03BD-A4B3-B54B-B827-2DD1543CCC33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E7AC9-8D3D-CF48-B625-629D9FB63CF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{5AAAE6EC-DD2A-E947-9EA3-5D2BA7D2231A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>organization</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>https://sites.google.com/state.co.us/rfpfs/home?authuser=0</t>
+  </si>
+  <si>
+    <t>https://www.povertyactionlab.org/stateandlocal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J-Pal </t>
+  </si>
+  <si>
+    <t>RCT grants.</t>
   </si>
 </sst>
 </file>
@@ -574,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F466CC07-6EC0-9B4C-AAE5-6424005AFEDA}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C22"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,127 +719,138 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
+        <v>59</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>55</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>56</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C22">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
